--- a/mythril/teste_0.24.7_smartbugs-curated/teste_0.24.7_mythril_smartbugs-curatedresult_dasp_soma.xlsx
+++ b/mythril/teste_0.24.7_smartbugs-curated/teste_0.24.7_mythril_smartbugs-curatedresult_dasp_soma.xlsx
@@ -447,119 +447,119 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>arithmetic</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arithmetic</t>
+          <t>reentrancy</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>reentrancy</t>
+          <t>front_running</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>access_control</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>unchecked_low_calls</t>
+          <t>access_control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>time_manipulation</t>
+          <t>unchecked_low_calls</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bad_randomness</t>
+          <t>time_manipulation</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>denial_service</t>
+          <t>bad_randomness</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>front_running</t>
+          <t>denial_service</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">

--- a/mythril/teste_0.24.7_smartbugs-curated/teste_0.24.7_mythril_smartbugs-curatedresult_dasp_soma.xlsx
+++ b/mythril/teste_0.24.7_smartbugs-curated/teste_0.24.7_mythril_smartbugs-curatedresult_dasp_soma.xlsx
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
